--- a/biology/Botanique/Picea_meyeri/Picea_meyeri.xlsx
+++ b/biology/Botanique/Picea_meyeri/Picea_meyeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Épicéa de Meyer
-Picea meyeri est un conifère de la famille des Pinacées[2]. Il est originaire du Centre et du Nord de la Chine.
+Picea meyeri est un conifère de la famille des Pinacées. Il est originaire du Centre et du Nord de la Chine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Picea meyeri a un port conique, peut atteindre 30 mètres de hauteur et avoir un tronc d'un diamètre allant de 60 cm à 1 mètre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea meyeri a un port conique, peut atteindre 30 mètres de hauteur et avoir un tronc d'un diamètre allant de 60 cm à 1 mètre.
 L'écorce évolue avec l'âge. Elle est d'abord gris-brun et lisse puis, en prenant de l'âge, l'écorce devient rugueuse et écailleuse. Les rameaux sont brun clair, raides, glabres ou pubescents.
 Les bourgeons sont coniques, légèrement poilus, résineux, bruns et mesurant de 6 mm à 1 cm.
 Les aiguilles sont légèrement courbées, de couleur glauque, disposées en spirales très serrées autour des rameaux, rabattues sur la fin des rameaux. Le sommet des aiguilles est émoussé ou pointu mais elles ne sont pas piquantes. Elles ont une section losangique. Elles mesurent de 1,25 à 3 cm de longueur pour 2 mm de largeur.
@@ -550,10 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-Picea meyeri pousse naturellement dans le Centre et le Nord de la Chine (Hubei, Mongolie-Intérieure, Shaanxi et Shanxi) à une altitude allant de 1600 jusqu'à 2700 mètres. Il a été introduit sur plusieurs continents où il pousse très bien.
-Exigences
-Picea meyeri est très tolérant donc il peut pousser sur toutes terres et en plus, il est résistant aux maladies. Il est aussi rustique puisqu'il supporte très bien une température allant jusqu'à -23 °C.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea meyeri pousse naturellement dans le Centre et le Nord de la Chine (Hubei, Mongolie-Intérieure, Shaanxi et Shanxi) à une altitude allant de 1600 jusqu'à 2700 mètres. Il a été introduit sur plusieurs continents où il pousse très bien.
 </t>
         </is>
       </c>
@@ -579,12 +596,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Exigences</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea meyeri est très tolérant donc il peut pousser sur toutes terres et en plus, il est résistant aux maladies. Il est aussi rustique puisqu'il supporte très bien une température allant jusqu'à -23 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Picea_meyeri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Picea_meyeri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Picea meyeri est de plus en plus utilisé pour la reforestation ainsi que pour l'ornementation. Il est aussi utilisé dans le domaine de la construction[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea meyeri est de plus en plus utilisé pour la reforestation ainsi que pour l'ornementation. Il est aussi utilisé dans le domaine de la construction.
 </t>
         </is>
       </c>
